--- a/Raw Data/PNR_Carabidae_Traits_Interspecific.xlsx
+++ b/Raw Data/PNR_Carabidae_Traits_Interspecific.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/perry_1864_osu_edu/Documents/Documents/PhD Projects/PhD - Herms Lab/Manuscripts/PNR/Carabidae/R/IDH_Ground_Beetles/Raw Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perry.1864\OneDrive - The Ohio State University\Documents\PhD Projects\PhD - Herms Lab\Manuscripts\PNR\Carabidae\R\IDH_Ground_Beetles\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E03B80C0-3967-4C2A-8469-961E5D5F3B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887B6D14-D2F5-441D-87B9-ACE4EDF385E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88D2178B-B131-429D-8650-0419B37A5771}"/>
+    <workbookView xWindow="-28920" yWindow="-11100" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{88D2178B-B131-429D-8650-0419B37A5771}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="255">
   <si>
     <t>Species</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Species Code</t>
   </si>
   <si>
-    <t>Dispersal</t>
-  </si>
-  <si>
     <t>bl</t>
   </si>
   <si>
@@ -67,466 +64,752 @@
     <t>Agonum ferreum</t>
   </si>
   <si>
-    <t>Agfe</t>
-  </si>
-  <si>
     <t>Agonum fidele</t>
   </si>
   <si>
-    <t>Agfi</t>
-  </si>
-  <si>
     <t>Agonum retractum</t>
   </si>
   <si>
-    <t>Agre</t>
-  </si>
-  <si>
     <t>Amphasia interstitialis</t>
   </si>
   <si>
-    <t>Amin</t>
-  </si>
-  <si>
     <t>Anisodactylus agricola</t>
   </si>
   <si>
-    <t>Anag</t>
-  </si>
-  <si>
     <t>Anisodactylus harrisii</t>
   </si>
   <si>
-    <t>Anha</t>
-  </si>
-  <si>
     <t>Anisodactylus melanopus</t>
   </si>
   <si>
-    <t>Anme</t>
-  </si>
-  <si>
     <t>Anisodactylus nigerrimus</t>
   </si>
   <si>
-    <t>Anni</t>
-  </si>
-  <si>
     <t>Apenes lucidula</t>
   </si>
   <si>
-    <t>Aplu</t>
-  </si>
-  <si>
     <t>Bembidion graciliformis</t>
   </si>
   <si>
-    <t>Begr</t>
-  </si>
-  <si>
     <t>Calathus gregarius</t>
   </si>
   <si>
-    <t>Cagr</t>
-  </si>
-  <si>
     <t>Carabus goryi</t>
   </si>
   <si>
-    <t>Cago</t>
-  </si>
-  <si>
     <t>Chlaenius emarginatus</t>
   </si>
   <si>
-    <t>Chem</t>
-  </si>
-  <si>
     <t>Chlaenius laticollis</t>
   </si>
   <si>
-    <t>Chla</t>
-  </si>
-  <si>
     <t>Chlaenius tricolor</t>
   </si>
   <si>
-    <t>Chtr</t>
-  </si>
-  <si>
     <t>Cyclotrachelus convivus</t>
   </si>
   <si>
-    <t>Cyco</t>
-  </si>
-  <si>
     <t>Cyclotrachelus fucatus</t>
   </si>
   <si>
-    <t>Cyfu</t>
-  </si>
-  <si>
     <t>Cyclotrachelus sigillatus</t>
   </si>
   <si>
-    <t>Cysi</t>
-  </si>
-  <si>
     <t>Cyclotrachelus sodalis</t>
   </si>
   <si>
-    <t>Cyso</t>
-  </si>
-  <si>
     <t>Cymindis americana</t>
   </si>
   <si>
-    <t>Cyam</t>
-  </si>
-  <si>
     <t>Cymindis limbata</t>
   </si>
   <si>
-    <t>Cyli</t>
-  </si>
-  <si>
     <t>Dicaelus politus</t>
   </si>
   <si>
-    <t>Dipo</t>
-  </si>
-  <si>
     <t>Dicaelus sculptilis</t>
   </si>
   <si>
-    <t>Disc</t>
-  </si>
-  <si>
     <t>Dicaelus teter</t>
   </si>
   <si>
-    <t>Dite</t>
-  </si>
-  <si>
     <t>Gastrellarius honestus</t>
   </si>
   <si>
-    <t>Gaho</t>
-  </si>
-  <si>
     <t>Harpalus spadiceus</t>
   </si>
   <si>
-    <t>Hasp</t>
-  </si>
-  <si>
     <t>Lophoglossus scrutator</t>
   </si>
   <si>
-    <t>Losc</t>
-  </si>
-  <si>
     <t>Loxandrus sp.</t>
   </si>
   <si>
+    <t>Myas coracinus</t>
+  </si>
+  <si>
+    <t>Myas cyanescens</t>
+  </si>
+  <si>
+    <t>Notiobia nitidipennis</t>
+  </si>
+  <si>
+    <t>Notiophilus aeneus</t>
+  </si>
+  <si>
+    <t>Notobia terminata</t>
+  </si>
+  <si>
+    <t>Olisthopus parmatus</t>
+  </si>
+  <si>
+    <t>Patrobus longicornis</t>
+  </si>
+  <si>
+    <t>Platynus augustatus</t>
+  </si>
+  <si>
+    <t>Platynus decentis</t>
+  </si>
+  <si>
+    <t>Platynus tenuicollis</t>
+  </si>
+  <si>
+    <t>Poecilus lucublandis</t>
+  </si>
+  <si>
+    <t>Pseudamara arenaria</t>
+  </si>
+  <si>
+    <t>Pterostichus adoxus</t>
+  </si>
+  <si>
+    <t>Pterostichus atratus</t>
+  </si>
+  <si>
+    <t>Pterostichus coracinus</t>
+  </si>
+  <si>
+    <t>Pterostichus corvinus</t>
+  </si>
+  <si>
+    <t>Pterostichus diligendus</t>
+  </si>
+  <si>
+    <t>Pterostichus hamiltoni</t>
+  </si>
+  <si>
+    <t>Pterostichus lachrymosus</t>
+  </si>
+  <si>
+    <t>Pterostichus melanarius</t>
+  </si>
+  <si>
+    <t>Pterostichus moestus</t>
+  </si>
+  <si>
+    <t>Pterostichus mutus</t>
+  </si>
+  <si>
+    <t>Pterostichus rostratus</t>
+  </si>
+  <si>
+    <t>Pterostichus sayanus</t>
+  </si>
+  <si>
+    <t>Pterostichus stygicus</t>
+  </si>
+  <si>
+    <t>Pterostichus superciliosus</t>
+  </si>
+  <si>
+    <t>Pterostichus trinarius</t>
+  </si>
+  <si>
+    <t>Pterostichus tristus</t>
+  </si>
+  <si>
+    <t>Scaphinotus andrewsii mutabilis</t>
+  </si>
+  <si>
+    <t>Scaphinotus imperfectus</t>
+  </si>
+  <si>
+    <t>Scaphinotus ridingsii</t>
+  </si>
+  <si>
+    <t>Scaphinotus viduus</t>
+  </si>
+  <si>
+    <t>Selenophorus opalinus</t>
+  </si>
+  <si>
+    <t>Sphaeroderus canadensis</t>
+  </si>
+  <si>
+    <t>Sphaeroderus stenostomus</t>
+  </si>
+  <si>
+    <t>Synuchus impunctatus</t>
+  </si>
+  <si>
+    <t>Trechus quadristriatus</t>
+  </si>
+  <si>
+    <t>Trichotichnus autumnalis</t>
+  </si>
+  <si>
+    <t>Trichotichnus vulpeculis</t>
+  </si>
+  <si>
+    <t>Xestonotus lugubris</t>
+  </si>
+  <si>
+    <t>Indiv. #</t>
+  </si>
+  <si>
+    <t>Head Width</t>
+  </si>
+  <si>
+    <t>Mandible Length</t>
+  </si>
+  <si>
+    <t>Eye Width</t>
+  </si>
+  <si>
+    <t>Eye Length</t>
+  </si>
+  <si>
+    <t>Antennae Length</t>
+  </si>
+  <si>
+    <t>Elytra Length</t>
+  </si>
+  <si>
+    <t>Front Tibia Length</t>
+  </si>
+  <si>
+    <t>Front Femur Length</t>
+  </si>
+  <si>
+    <t>Back Tibia Length</t>
+  </si>
+  <si>
+    <t>Back Femur Length</t>
+  </si>
+  <si>
+    <t>Bembidion gracialiformis</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Scaphinotus impunctatus</t>
+  </si>
+  <si>
+    <t>All measurements in mm</t>
+  </si>
+  <si>
+    <t>Up to 6 individuals of each species were measured to capture the intraspecific variation in traits</t>
+  </si>
+  <si>
+    <t>Head width (hw)</t>
+  </si>
+  <si>
+    <t>Mandible length (ml)</t>
+  </si>
+  <si>
+    <t>Eye width (ew)</t>
+  </si>
+  <si>
+    <t>Eye length (el)</t>
+  </si>
+  <si>
+    <t>Antennae length (al)</t>
+  </si>
+  <si>
+    <t>Elytra length (ely)</t>
+  </si>
+  <si>
+    <t>Front tibia length (ftl)</t>
+  </si>
+  <si>
+    <t>Front femur length (ffl)</t>
+  </si>
+  <si>
+    <t>Back tibia length (btl)</t>
+  </si>
+  <si>
+    <t>Back femur length (bfl)</t>
+  </si>
+  <si>
+    <t>Back leg (tibia + femur) length (bll)</t>
+  </si>
+  <si>
+    <t>r = relative measurement of trait based on body length</t>
+  </si>
+  <si>
+    <t>Body length (bl)</t>
+  </si>
+  <si>
+    <t>Macropterous = 1</t>
+  </si>
+  <si>
+    <t>Dimorphic = 0.5</t>
+  </si>
+  <si>
+    <t>Brachypertous = 0</t>
+  </si>
+  <si>
+    <t>blr</t>
+  </si>
+  <si>
+    <t>Body length, minimum</t>
+  </si>
+  <si>
+    <t>Body length, maximum</t>
+  </si>
+  <si>
+    <t>lb_min</t>
+  </si>
+  <si>
+    <t>bl_max</t>
+  </si>
+  <si>
+    <t>Body length, range (blr)</t>
+  </si>
+  <si>
+    <t>dis</t>
+  </si>
+  <si>
+    <t>Dispersal (dis)</t>
+  </si>
+  <si>
+    <t>Aagricola</t>
+  </si>
+  <si>
+    <t>Aferreum</t>
+  </si>
+  <si>
+    <t>Afidele</t>
+  </si>
+  <si>
+    <t>Aharrisii</t>
+  </si>
+  <si>
+    <t>Ainterstitialis</t>
+  </si>
+  <si>
+    <t>Alucidula</t>
+  </si>
+  <si>
+    <t>Amelanopus</t>
+  </si>
+  <si>
+    <t>Camericana</t>
+  </si>
+  <si>
+    <t>Cconvivus</t>
+  </si>
+  <si>
+    <t>Cemarginatus</t>
+  </si>
+  <si>
+    <t>Cfucatus</t>
+  </si>
+  <si>
+    <t>Cgoryi</t>
+  </si>
+  <si>
+    <t>Cgregarius</t>
+  </si>
+  <si>
+    <t>Claticollis</t>
+  </si>
+  <si>
+    <t>Climbata</t>
+  </si>
+  <si>
+    <t>Csigillatus</t>
+  </si>
+  <si>
+    <t>Csodalis</t>
+  </si>
+  <si>
+    <t>Ctricolor</t>
+  </si>
+  <si>
+    <t>Dpolitus</t>
+  </si>
+  <si>
+    <t>Dsculptilis</t>
+  </si>
+  <si>
+    <t>Dteter</t>
+  </si>
+  <si>
+    <t>Ghonestus</t>
+  </si>
+  <si>
+    <t>Loxandrus</t>
+  </si>
+  <si>
+    <t>Lscrutator</t>
+  </si>
+  <si>
+    <t>Mcoracinus</t>
+  </si>
+  <si>
+    <t>Mcyanescens</t>
+  </si>
+  <si>
+    <t>Mimperfecta</t>
+  </si>
+  <si>
+    <t>Naeneus</t>
+  </si>
+  <si>
+    <t>Nnitidipennis</t>
+  </si>
+  <si>
+    <t>Nterminata</t>
+  </si>
+  <si>
+    <t>Oparmatus</t>
+  </si>
+  <si>
+    <t>Padoxus</t>
+  </si>
+  <si>
+    <t>Pangustatus</t>
+  </si>
+  <si>
+    <t>Parenaria</t>
+  </si>
+  <si>
+    <t>Patratus</t>
+  </si>
+  <si>
+    <t>Pcoracinus</t>
+  </si>
+  <si>
+    <t>Pdecentis</t>
+  </si>
+  <si>
+    <t>Pdiligendus</t>
+  </si>
+  <si>
+    <t>Phamiltoni</t>
+  </si>
+  <si>
+    <t>Plachrymosus</t>
+  </si>
+  <si>
+    <t>Plongicornis</t>
+  </si>
+  <si>
+    <t>Plucublandus</t>
+  </si>
+  <si>
+    <t>Pmelanarius</t>
+  </si>
+  <si>
+    <t>Pmoestus</t>
+  </si>
+  <si>
+    <t>Pmutus</t>
+  </si>
+  <si>
+    <t>Prostratus</t>
+  </si>
+  <si>
+    <t>Psayanus</t>
+  </si>
+  <si>
+    <t>Pstygicus</t>
+  </si>
+  <si>
+    <t>Psuperciliosus</t>
+  </si>
+  <si>
+    <t>Ptenuicollis</t>
+  </si>
+  <si>
+    <t>Ptrinarius</t>
+  </si>
+  <si>
+    <t>Ptristis</t>
+  </si>
+  <si>
+    <t>Scanadensis</t>
+  </si>
+  <si>
+    <t>Simpunctatus</t>
+  </si>
+  <si>
+    <t>Slecontei</t>
+  </si>
+  <si>
+    <t>Sridingsi</t>
+  </si>
+  <si>
+    <t>Sviduus</t>
+  </si>
+  <si>
+    <t>Tautumnalis</t>
+  </si>
+  <si>
+    <t>Tvulpeculus</t>
+  </si>
+  <si>
+    <t>Ground beetle species, first letter of genus followed by species name</t>
+  </si>
+  <si>
+    <t>Aretractum</t>
+  </si>
+  <si>
+    <t>Anigerrimus</t>
+  </si>
+  <si>
+    <t>Bgraciliformis</t>
+  </si>
+  <si>
+    <t>Hspadiceus</t>
+  </si>
+  <si>
+    <t>Pcorvinus</t>
+  </si>
+  <si>
+    <t>Sopalinus</t>
+  </si>
+  <si>
+    <t>Tquadristriatus</t>
+  </si>
+  <si>
+    <t>Xlugubris</t>
+  </si>
+  <si>
+    <t>Afer</t>
+  </si>
+  <si>
+    <t>Afid</t>
+  </si>
+  <si>
+    <t>Aret</t>
+  </si>
+  <si>
+    <t>Aint</t>
+  </si>
+  <si>
+    <t>Aagr</t>
+  </si>
+  <si>
+    <t>Ahar</t>
+  </si>
+  <si>
+    <t>Amel</t>
+  </si>
+  <si>
+    <t>Anig</t>
+  </si>
+  <si>
+    <t>Aluc</t>
+  </si>
+  <si>
+    <t>Bgra</t>
+  </si>
+  <si>
+    <t>Cgre</t>
+  </si>
+  <si>
+    <t>Cgor</t>
+  </si>
+  <si>
+    <t>Cema</t>
+  </si>
+  <si>
+    <t>Clat</t>
+  </si>
+  <si>
+    <t>Ctri</t>
+  </si>
+  <si>
+    <t>Ccon</t>
+  </si>
+  <si>
+    <t>Cfuc</t>
+  </si>
+  <si>
+    <t>Csig</t>
+  </si>
+  <si>
+    <t>Csod</t>
+  </si>
+  <si>
+    <t>Came</t>
+  </si>
+  <si>
+    <t>Clim</t>
+  </si>
+  <si>
+    <t>Dpol</t>
+  </si>
+  <si>
+    <t>Dscul</t>
+  </si>
+  <si>
+    <t>Dtet</t>
+  </si>
+  <si>
+    <t>Ghon</t>
+  </si>
+  <si>
+    <t>Hspad</t>
+  </si>
+  <si>
+    <t>Lscr</t>
+  </si>
+  <si>
     <t>Loxa</t>
   </si>
   <si>
-    <t>Myas coracinus</t>
-  </si>
-  <si>
-    <t>Myco</t>
-  </si>
-  <si>
-    <t>Myas cyanescens</t>
-  </si>
-  <si>
-    <t>Mycy</t>
-  </si>
-  <si>
-    <t>Notiobia nitidipennis</t>
-  </si>
-  <si>
-    <t>Noni</t>
-  </si>
-  <si>
-    <t>Notiophilus aeneus</t>
-  </si>
-  <si>
-    <t>Noae</t>
-  </si>
-  <si>
-    <t>Notobia terminata</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Olisthopus parmatus</t>
-  </si>
-  <si>
-    <t>Olpa</t>
-  </si>
-  <si>
-    <t>Patrobus longicornis</t>
-  </si>
-  <si>
-    <t>Palo</t>
-  </si>
-  <si>
-    <t>Platynus augustatus</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Platynus decentis</t>
-  </si>
-  <si>
-    <t>Plde</t>
-  </si>
-  <si>
-    <t>Platynus tenuicollis</t>
-  </si>
-  <si>
-    <t>Plte</t>
-  </si>
-  <si>
-    <t>Poecilus lucublandis</t>
-  </si>
-  <si>
-    <t>Polu</t>
-  </si>
-  <si>
-    <t>Pseudamara arenaria</t>
-  </si>
-  <si>
-    <t>Psar</t>
-  </si>
-  <si>
-    <t>Pterostichus adoxus</t>
-  </si>
-  <si>
-    <t>Ptad</t>
-  </si>
-  <si>
-    <t>Pterostichus atratus</t>
-  </si>
-  <si>
-    <t>Ptat</t>
-  </si>
-  <si>
-    <t>Pterostichus coracinus</t>
-  </si>
-  <si>
-    <t>Ptcc</t>
-  </si>
-  <si>
-    <t>Pterostichus corvinus</t>
-  </si>
-  <si>
-    <t>Ptcv</t>
-  </si>
-  <si>
-    <t>Pterostichus diligendus</t>
-  </si>
-  <si>
-    <t>Ptdi</t>
-  </si>
-  <si>
-    <t>Pterostichus hamiltoni</t>
-  </si>
-  <si>
-    <t>Ptha</t>
-  </si>
-  <si>
-    <t>Pterostichus lachrymosus</t>
-  </si>
-  <si>
-    <t>Ptla</t>
-  </si>
-  <si>
-    <t>Pterostichus melanarius</t>
-  </si>
-  <si>
-    <t>Ptme</t>
-  </si>
-  <si>
-    <t>Pterostichus moestus</t>
-  </si>
-  <si>
-    <t>Ptmo</t>
-  </si>
-  <si>
-    <t>Pterostichus mutus</t>
-  </si>
-  <si>
-    <t>Ptmu</t>
-  </si>
-  <si>
-    <t>Pterostichus rostratus</t>
-  </si>
-  <si>
-    <t>Ptro</t>
-  </si>
-  <si>
-    <t>Pterostichus sayanus</t>
-  </si>
-  <si>
-    <t>Ptsa</t>
-  </si>
-  <si>
-    <t>Pterostichus stygicus</t>
-  </si>
-  <si>
-    <t>Ptst</t>
-  </si>
-  <si>
-    <t>Pterostichus superciliosus</t>
-  </si>
-  <si>
-    <t>Ptsu</t>
-  </si>
-  <si>
-    <t>Pterostichus trinarius</t>
-  </si>
-  <si>
-    <t>Pttn</t>
-  </si>
-  <si>
-    <t>Pterostichus tristus</t>
-  </si>
-  <si>
-    <t>Ptts</t>
-  </si>
-  <si>
-    <t>Scaphinotus andrewsii mutabilis</t>
+    <t>Mcor</t>
+  </si>
+  <si>
+    <t>Mcya</t>
+  </si>
+  <si>
+    <t>Nnit</t>
+  </si>
+  <si>
+    <t>Naen</t>
+  </si>
+  <si>
+    <t>Nter</t>
+  </si>
+  <si>
+    <t>Opar</t>
+  </si>
+  <si>
+    <t>Plon</t>
+  </si>
+  <si>
+    <t>Pang</t>
+  </si>
+  <si>
+    <t>Pdec</t>
+  </si>
+  <si>
+    <t>Pten</t>
+  </si>
+  <si>
+    <t>Pluc</t>
+  </si>
+  <si>
+    <t>Pare</t>
+  </si>
+  <si>
+    <t>Pado</t>
+  </si>
+  <si>
+    <t>Patr</t>
+  </si>
+  <si>
+    <t>Pcor</t>
+  </si>
+  <si>
+    <t>Pcov</t>
+  </si>
+  <si>
+    <t>Pdil</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>Plac</t>
+  </si>
+  <si>
+    <t>Pmel</t>
+  </si>
+  <si>
+    <t>Pmoe</t>
+  </si>
+  <si>
+    <t>Pmut</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>Psay</t>
+  </si>
+  <si>
+    <t>Psty</t>
+  </si>
+  <si>
+    <t>Psup</t>
+  </si>
+  <si>
+    <t>Ptri</t>
+  </si>
+  <si>
+    <t>Ptrs</t>
   </si>
   <si>
     <t>Scan</t>
   </si>
   <si>
-    <t>Scaphinotus imperfectus</t>
-  </si>
-  <si>
-    <t>Scif</t>
-  </si>
-  <si>
-    <t>Scaphinotus ridingsii</t>
-  </si>
-  <si>
-    <t>Scri</t>
-  </si>
-  <si>
-    <t>Scaphinotus viduus</t>
-  </si>
-  <si>
-    <t>Scvi</t>
-  </si>
-  <si>
-    <t>Selenophorus opalinus</t>
-  </si>
-  <si>
-    <t>Seop</t>
-  </si>
-  <si>
-    <t>Sphaeroderus canadensis</t>
-  </si>
-  <si>
-    <t>Spca</t>
-  </si>
-  <si>
-    <t>Sphaeroderus stenostomus</t>
-  </si>
-  <si>
-    <t>Sple</t>
-  </si>
-  <si>
-    <t>Synuchus impunctatus</t>
-  </si>
-  <si>
-    <t>Syim</t>
-  </si>
-  <si>
-    <t>Trechus quadristriatus</t>
-  </si>
-  <si>
-    <t>Trqu</t>
-  </si>
-  <si>
-    <t>Trichotichnus autumnalis</t>
-  </si>
-  <si>
-    <t>Trau</t>
-  </si>
-  <si>
-    <t>Trichotichnus vulpeculis</t>
-  </si>
-  <si>
-    <t>Trvu</t>
-  </si>
-  <si>
-    <t>Xestonotus lugubris</t>
-  </si>
-  <si>
-    <t>Xelu</t>
-  </si>
-  <si>
-    <t>Indiv. #</t>
-  </si>
-  <si>
-    <t>Head Width</t>
-  </si>
-  <si>
-    <t>Mandible Length</t>
-  </si>
-  <si>
-    <t>Eye Width</t>
-  </si>
-  <si>
-    <t>Eye Length</t>
-  </si>
-  <si>
-    <t>Antennae Length</t>
-  </si>
-  <si>
-    <t>Elytra Length</t>
-  </si>
-  <si>
-    <t>Front Tibia Length</t>
-  </si>
-  <si>
-    <t>Front Femur Length</t>
-  </si>
-  <si>
-    <t>Back Tibia Length</t>
-  </si>
-  <si>
-    <t>Back Femur Length</t>
-  </si>
-  <si>
-    <t>Bembidion gracialiformis</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Scaphinotus impunctatus</t>
-  </si>
-  <si>
-    <t>All measurements in mm</t>
-  </si>
-  <si>
-    <t>Up to 6 individuals of each species were measured to capture the intraspecific variation in traits</t>
+    <t>Mimp</t>
+  </si>
+  <si>
+    <t>Srid</t>
+  </si>
+  <si>
+    <t>Svid</t>
+  </si>
+  <si>
+    <t>Sopa</t>
+  </si>
+  <si>
+    <t>Smut</t>
+  </si>
+  <si>
+    <t>Slec</t>
+  </si>
+  <si>
+    <t>Simp</t>
+  </si>
+  <si>
+    <t>Tqua</t>
+  </si>
+  <si>
+    <t>Taut</t>
+  </si>
+  <si>
+    <t>Tvul</t>
+  </si>
+  <si>
+    <t>Xlug</t>
+  </si>
+  <si>
+    <t>Species_Short</t>
+  </si>
+  <si>
+    <t>Species_Full</t>
+  </si>
+  <si>
+    <t>Sandrewsii</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -564,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -577,6 +860,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC46ACBE-5251-4C40-93FB-0CDAC623646B}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,12 +1192,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +1315,7 @@
   <dimension ref="A1:L255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -948,42 +1340,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1021,7 +1413,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1059,7 +1451,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -1097,7 +1489,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6">
         <v>2</v>
@@ -1135,7 +1527,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6">
         <v>3</v>
@@ -1173,7 +1565,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -1211,7 +1603,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6">
         <v>5</v>
@@ -1249,7 +1641,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6">
         <v>6</v>
@@ -1287,7 +1679,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -1325,7 +1717,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6">
         <v>2</v>
@@ -1363,7 +1755,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>3</v>
@@ -1401,7 +1793,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -1439,7 +1831,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6">
         <v>2</v>
@@ -1477,7 +1869,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -1515,7 +1907,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="6">
         <v>4</v>
@@ -1553,7 +1945,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" s="6">
         <v>5</v>
@@ -1591,7 +1983,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" s="6">
         <v>6</v>
@@ -1629,7 +2021,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -1667,7 +2059,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -1705,7 +2097,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -1743,7 +2135,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -1781,7 +2173,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -1819,7 +2211,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
@@ -1857,7 +2249,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -1895,7 +2287,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -1933,7 +2325,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="B27" s="6">
         <v>2</v>
@@ -1971,7 +2363,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -2009,7 +2401,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -2047,7 +2439,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -2085,7 +2477,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B31" s="6">
         <v>3</v>
@@ -2123,7 +2515,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B32" s="6">
         <v>4</v>
@@ -2161,7 +2553,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B33" s="6">
         <v>5</v>
@@ -2199,7 +2591,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B34" s="6">
         <v>6</v>
@@ -2237,7 +2629,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
@@ -2275,7 +2667,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B36" s="6">
         <v>2</v>
@@ -2313,7 +2705,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B37" s="6">
         <v>3</v>
@@ -2351,7 +2743,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B38" s="6">
         <v>4</v>
@@ -2389,7 +2781,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B39" s="6">
         <v>5</v>
@@ -2427,7 +2819,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B40" s="6">
         <v>6</v>
@@ -2465,7 +2857,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
@@ -2503,7 +2895,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B42" s="6">
         <v>2</v>
@@ -2541,7 +2933,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -2579,7 +2971,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
@@ -2617,7 +3009,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
@@ -2655,7 +3047,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B46" s="6">
         <v>2</v>
@@ -2693,7 +3085,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B47" s="6">
         <v>3</v>
@@ -2731,7 +3123,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B48" s="6">
         <v>4</v>
@@ -2769,7 +3161,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B49" s="6">
         <v>5</v>
@@ -2807,7 +3199,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B50" s="6">
         <v>6</v>
@@ -2845,7 +3237,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B51" s="6">
         <v>1</v>
@@ -2883,7 +3275,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B52" s="6">
         <v>2</v>
@@ -2921,7 +3313,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B53" s="6">
         <v>3</v>
@@ -2959,7 +3351,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B54" s="6">
         <v>4</v>
@@ -2997,7 +3389,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B55" s="6">
         <v>5</v>
@@ -3035,7 +3427,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B56" s="6">
         <v>6</v>
@@ -3073,7 +3465,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
@@ -3111,7 +3503,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B58" s="6">
         <v>2</v>
@@ -3149,7 +3541,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B59" s="6">
         <v>3</v>
@@ -3187,7 +3579,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B60" s="6">
         <v>4</v>
@@ -3225,7 +3617,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B61" s="6">
         <v>5</v>
@@ -3263,7 +3655,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B62" s="6">
         <v>6</v>
@@ -3301,7 +3693,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B63" s="6">
         <v>1</v>
@@ -3319,7 +3711,7 @@
         <v>0.6875</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="H63" s="5">
         <v>6.5</v>
@@ -3339,7 +3731,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B64" s="6">
         <v>1</v>
@@ -3377,7 +3769,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B65" s="6">
         <v>2</v>
@@ -3415,7 +3807,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B66" s="6">
         <v>1</v>
@@ -3453,7 +3845,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B67" s="6">
         <v>2</v>
@@ -3491,7 +3883,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B68" s="6">
         <v>3</v>
@@ -3529,7 +3921,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B69" s="6">
         <v>4</v>
@@ -3567,7 +3959,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B70" s="6">
         <v>5</v>
@@ -3605,7 +3997,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B71" s="6">
         <v>6</v>
@@ -3643,7 +4035,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B72" s="6">
         <v>1</v>
@@ -3681,7 +4073,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B73" s="6">
         <v>2</v>
@@ -3719,7 +4111,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B74" s="6">
         <v>3</v>
@@ -3757,7 +4149,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B75" s="6">
         <v>4</v>
@@ -3795,7 +4187,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B76" s="6">
         <v>5</v>
@@ -3833,7 +4225,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B77" s="6">
         <v>6</v>
@@ -3871,7 +4263,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B78" s="6">
         <v>1</v>
@@ -3909,7 +4301,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B79" s="6">
         <v>2</v>
@@ -3947,7 +4339,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B80" s="6">
         <v>3</v>
@@ -3985,7 +4377,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B81" s="6">
         <v>4</v>
@@ -4023,7 +4415,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B82" s="6">
         <v>5</v>
@@ -4061,7 +4453,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B83" s="6">
         <v>6</v>
@@ -4099,7 +4491,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B84" s="6">
         <v>1</v>
@@ -4117,7 +4509,7 @@
         <v>0.5</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="H84" s="5">
         <v>5.125</v>
@@ -4137,7 +4529,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B85" s="6">
         <v>2</v>
@@ -4175,7 +4567,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B86" s="6">
         <v>3</v>
@@ -4213,7 +4605,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B87" s="6">
         <v>1</v>
@@ -4251,7 +4643,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B88" s="6">
         <v>2</v>
@@ -4289,7 +4681,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B89" s="6">
         <v>1</v>
@@ -4327,7 +4719,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
@@ -4365,7 +4757,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B91" s="6">
         <v>2</v>
@@ -4403,7 +4795,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B92" s="6">
         <v>3</v>
@@ -4441,7 +4833,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B93" s="6">
         <v>1</v>
@@ -4479,7 +4871,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B94" s="6">
         <v>2</v>
@@ -4517,7 +4909,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B95" s="6">
         <v>3</v>
@@ -4555,7 +4947,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B96" s="6">
         <v>1</v>
@@ -4585,15 +4977,15 @@
         <v>2.6</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B97" s="6">
         <v>1</v>
@@ -4631,7 +5023,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B98" s="6">
         <v>2</v>
@@ -4669,7 +5061,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B99" s="6">
         <v>3</v>
@@ -4707,7 +5099,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B100" s="6">
         <v>1</v>
@@ -4745,7 +5137,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B101" s="6">
         <v>2</v>
@@ -4783,7 +5175,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B102" s="6">
         <v>3</v>
@@ -4821,7 +5213,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B103" s="6">
         <v>4</v>
@@ -4859,7 +5251,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B104" s="6">
         <v>5</v>
@@ -4897,7 +5289,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B105" s="6">
         <v>6</v>
@@ -4935,7 +5327,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B106" s="6">
         <v>1</v>
@@ -4973,7 +5365,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B107" s="6">
         <v>2</v>
@@ -5011,7 +5403,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B108" s="6">
         <v>3</v>
@@ -5049,7 +5441,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B109" s="6">
         <v>4</v>
@@ -5087,7 +5479,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B110" s="6">
         <v>5</v>
@@ -5125,7 +5517,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B111" s="6">
         <v>6</v>
@@ -5163,7 +5555,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B112" s="6">
         <v>1</v>
@@ -5201,7 +5593,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B113" s="6">
         <v>2</v>
@@ -5239,7 +5631,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B114" s="6">
         <v>3</v>
@@ -5277,7 +5669,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B115" s="6">
         <v>1</v>
@@ -5315,7 +5707,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B116" s="6">
         <v>2</v>
@@ -5353,7 +5745,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B117" s="6">
         <v>3</v>
@@ -5391,7 +5783,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B118" s="6">
         <v>4</v>
@@ -5429,7 +5821,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B119" s="6">
         <v>5</v>
@@ -5467,7 +5859,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B120" s="6">
         <v>6</v>
@@ -5505,7 +5897,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B121" s="6">
         <v>1</v>
@@ -5543,7 +5935,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B122" s="6">
         <v>1</v>
@@ -5581,7 +5973,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B123" s="6">
         <v>2</v>
@@ -5619,7 +6011,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B124" s="6">
         <v>3</v>
@@ -5657,7 +6049,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B125" s="6">
         <v>4</v>
@@ -5695,7 +6087,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B126" s="6">
         <v>5</v>
@@ -5733,7 +6125,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B127" s="6">
         <v>6</v>
@@ -5771,7 +6163,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B128" s="6">
         <v>1</v>
@@ -5809,7 +6201,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B129" s="6">
         <v>2</v>
@@ -5827,7 +6219,7 @@
         <v>0.625</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="H129" s="5">
         <v>6.9375</v>
@@ -5847,7 +6239,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B130" s="6">
         <v>3</v>
@@ -5885,7 +6277,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B131" s="6">
         <v>4</v>
@@ -5923,7 +6315,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B132" s="6">
         <v>1</v>
@@ -5961,7 +6353,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B133" s="6">
         <v>2</v>
@@ -5999,7 +6391,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B134" s="6">
         <v>3</v>
@@ -6037,7 +6429,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B135" s="6">
         <v>4</v>
@@ -6075,7 +6467,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B136" s="6">
         <v>5</v>
@@ -6113,7 +6505,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B137" s="6">
         <v>6</v>
@@ -6151,7 +6543,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B138" s="6">
         <v>1</v>
@@ -6189,7 +6581,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B139" s="6">
         <v>2</v>
@@ -6227,7 +6619,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B140" s="6">
         <v>3</v>
@@ -6265,7 +6657,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B141" s="6">
         <v>1</v>
@@ -6303,7 +6695,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B142" s="6">
         <v>2</v>
@@ -6341,7 +6733,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B143" s="6">
         <v>1</v>
@@ -6379,7 +6771,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B144" s="6">
         <v>2</v>
@@ -6417,7 +6809,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B145" s="6">
         <v>3</v>
@@ -6455,7 +6847,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B146" s="6">
         <v>4</v>
@@ -6493,7 +6885,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B147" s="6">
         <v>5</v>
@@ -6531,7 +6923,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B148" s="6">
         <v>6</v>
@@ -6569,7 +6961,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B149" s="6">
         <v>1</v>
@@ -6599,15 +6991,15 @@
         <v>2.9</v>
       </c>
       <c r="K149" s="5" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B150" s="6">
         <v>1</v>
@@ -6645,7 +7037,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B151" s="6">
         <v>2</v>
@@ -6683,7 +7075,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B152" s="6">
         <v>3</v>
@@ -6721,7 +7113,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B153" s="6">
         <v>4</v>
@@ -6759,7 +7151,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B154" s="6">
         <v>5</v>
@@ -6797,7 +7189,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B155" s="6">
         <v>6</v>
@@ -6835,7 +7227,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B156" s="6">
         <v>1</v>
@@ -6873,7 +7265,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B157" s="6">
         <v>2</v>
@@ -6911,7 +7303,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B158" s="6">
         <v>3</v>
@@ -6949,7 +7341,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B159" s="6">
         <v>4</v>
@@ -6987,7 +7379,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B160" s="6">
         <v>5</v>
@@ -7025,7 +7417,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B161" s="6">
         <v>6</v>
@@ -7063,7 +7455,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B162" s="6">
         <v>1</v>
@@ -7101,7 +7493,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B163" s="6">
         <v>2</v>
@@ -7139,7 +7531,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B164" s="6">
         <v>3</v>
@@ -7177,7 +7569,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B165" s="6">
         <v>4</v>
@@ -7215,7 +7607,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B166" s="6">
         <v>5</v>
@@ -7253,7 +7645,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B167" s="6">
         <v>6</v>
@@ -7291,7 +7683,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B168" s="6">
         <v>1</v>
@@ -7329,7 +7721,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B169" s="6">
         <v>2</v>
@@ -7367,7 +7759,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B170" s="6">
         <v>3</v>
@@ -7405,7 +7797,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B171" s="6">
         <v>4</v>
@@ -7443,7 +7835,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B172" s="6">
         <v>5</v>
@@ -7481,7 +7873,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B173" s="6">
         <v>6</v>
@@ -7519,7 +7911,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B174" s="6">
         <v>1</v>
@@ -7557,7 +7949,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B175" s="6">
         <v>2</v>
@@ -7595,7 +7987,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B176" s="6">
         <v>3</v>
@@ -7633,7 +8025,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B177" s="6">
         <v>4</v>
@@ -7671,7 +8063,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B178" s="6">
         <v>5</v>
@@ -7709,7 +8101,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B179" s="6">
         <v>6</v>
@@ -7747,7 +8139,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B180" s="6">
         <v>1</v>
@@ -7785,7 +8177,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B181" s="6">
         <v>1</v>
@@ -7823,7 +8215,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B182" s="6">
         <v>2</v>
@@ -7861,7 +8253,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B183" s="6">
         <v>3</v>
@@ -7899,7 +8291,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B184" s="6">
         <v>4</v>
@@ -7937,7 +8329,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B185" s="6">
         <v>5</v>
@@ -7975,7 +8367,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B186" s="6">
         <v>6</v>
@@ -8013,7 +8405,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B187" s="6">
         <v>1</v>
@@ -8051,7 +8443,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B188" s="6">
         <v>2</v>
@@ -8089,7 +8481,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B189" s="6">
         <v>3</v>
@@ -8127,7 +8519,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B190" s="6">
         <v>4</v>
@@ -8165,7 +8557,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B191" s="6">
         <v>1</v>
@@ -8203,7 +8595,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B192" s="6">
         <v>2</v>
@@ -8241,7 +8633,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B193" s="6">
         <v>3</v>
@@ -8279,7 +8671,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B194" s="6">
         <v>4</v>
@@ -8317,7 +8709,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B195" s="6">
         <v>5</v>
@@ -8355,7 +8747,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B196" s="6">
         <v>6</v>
@@ -8393,7 +8785,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B197" s="6">
         <v>1</v>
@@ -8431,7 +8823,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B198" s="6">
         <v>2</v>
@@ -8449,7 +8841,7 @@
         <v>0.5</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="H198" s="5">
         <v>6.3125</v>
@@ -8469,7 +8861,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B199" s="6">
         <v>3</v>
@@ -8507,7 +8899,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B200" s="6">
         <v>4</v>
@@ -8545,7 +8937,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B201" s="6">
         <v>1</v>
@@ -8583,7 +8975,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B202" s="6">
         <v>2</v>
@@ -8621,7 +9013,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B203" s="6">
         <v>3</v>
@@ -8659,7 +9051,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B204" s="6">
         <v>4</v>
@@ -8697,7 +9089,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B205" s="6">
         <v>5</v>
@@ -8735,7 +9127,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B206" s="6">
         <v>6</v>
@@ -8773,7 +9165,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="B207" s="6">
         <v>1</v>
@@ -8811,7 +9203,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B208" s="6">
         <v>1</v>
@@ -8849,7 +9241,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B209" s="6">
         <v>2</v>
@@ -8887,7 +9279,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B210" s="6">
         <v>3</v>
@@ -8925,7 +9317,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B211" s="6">
         <v>4</v>
@@ -8963,7 +9355,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B212" s="6">
         <v>5</v>
@@ -9001,7 +9393,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B213" s="6">
         <v>6</v>
@@ -9039,7 +9431,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B214" s="6">
         <v>1</v>
@@ -9077,7 +9469,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B215" s="6">
         <v>2</v>
@@ -9115,7 +9507,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B216" s="6">
         <v>3</v>
@@ -9153,7 +9545,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B217" s="6">
         <v>4</v>
@@ -9191,7 +9583,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B218" s="6">
         <v>5</v>
@@ -9229,7 +9621,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B219" s="6">
         <v>6</v>
@@ -9267,7 +9659,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B220" s="6">
         <v>1</v>
@@ -9305,7 +9697,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B221" s="6">
         <v>1</v>
@@ -9343,7 +9735,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B222" s="6">
         <v>2</v>
@@ -9361,7 +9753,7 @@
         <v>0.5625</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="H222" s="5">
         <v>4.1875</v>
@@ -9381,7 +9773,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="B223" s="6">
         <v>1</v>
@@ -9419,7 +9811,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="B224" s="6">
         <v>2</v>
@@ -9457,7 +9849,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="B225" s="6">
         <v>1</v>
@@ -9495,7 +9887,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B226" s="6">
         <v>1</v>
@@ -9533,7 +9925,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B227" s="6">
         <v>2</v>
@@ -9571,7 +9963,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B228" s="6">
         <v>3</v>
@@ -9609,7 +10001,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B229" s="6">
         <v>4</v>
@@ -9647,7 +10039,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B230" s="6">
         <v>5</v>
@@ -9685,7 +10077,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B231" s="6">
         <v>6</v>
@@ -9723,7 +10115,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B232" s="6">
         <v>1</v>
@@ -9761,7 +10153,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B233" s="6">
         <v>1</v>
@@ -9799,7 +10191,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B234" s="6">
         <v>2</v>
@@ -9837,7 +10229,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B235" s="6">
         <v>3</v>
@@ -9875,7 +10267,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B236" s="6">
         <v>4</v>
@@ -9913,7 +10305,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B237" s="6">
         <v>5</v>
@@ -9951,7 +10343,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B238" s="6">
         <v>6</v>
@@ -9989,7 +10381,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B239" s="6">
         <v>1</v>
@@ -10027,7 +10419,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B240" s="6">
         <v>2</v>
@@ -10065,7 +10457,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B241" s="6">
         <v>3</v>
@@ -10103,7 +10495,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B242" s="6">
         <v>4</v>
@@ -10141,7 +10533,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B243" s="6">
         <v>5</v>
@@ -10179,7 +10571,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B244" s="6">
         <v>6</v>
@@ -10217,7 +10609,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="B245" s="6">
         <v>1</v>
@@ -10255,7 +10647,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="B246" s="6">
         <v>1</v>
@@ -10293,7 +10685,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="B247" s="6">
         <v>2</v>
@@ -10331,7 +10723,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="B248" s="6">
         <v>3</v>
@@ -10369,7 +10761,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="B249" s="6">
         <v>4</v>
@@ -10407,7 +10799,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="B250" s="6">
         <v>5</v>
@@ -10445,7 +10837,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="B251" s="6">
         <v>6</v>
@@ -10483,7 +10875,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="B252" s="6">
         <v>1</v>
@@ -10521,7 +10913,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="B253" s="6">
         <v>2</v>
@@ -10559,7 +10951,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="B254" s="6">
         <v>3</v>
@@ -10597,7 +10989,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="B255" s="6">
         <v>1</v>
@@ -10640,2013 +11032,2847 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2BDC3-DCC5-4064-AE70-5CABAA3EC8EF}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8" style="1"/>
-    <col min="5" max="9" width="8" style="2"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1"/>
+    <col min="9" max="13" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9.9137931034482762E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>7.3275862068965511E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.53879310344827591</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.56034482758620685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.02</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.12587767923133777</v>
+      </c>
+      <c r="J3" s="2">
+        <v>9.007760532150777E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6.3516260162601632E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.49889135254988914</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.53007206208425728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8.59375E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5.9895833333333336E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.42447916666666669</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.18710691823899372</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.12264150943396225</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4.716981132075472E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.42452830188679247</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.48427672955974838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E6" s="1">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.20714285714285713</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.31428571428571433</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.44285714285714289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E7" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.192</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="K8" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.50416666666666676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G9" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.1217391304347826</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4.5652173913043478E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.35217391304347823</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.4869565217391304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.34523809523809523</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.47023809523809523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.21090909090909093</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="K11" s="2">
+        <v>7.636363636363637E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.59272727272727266</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.55636363636363639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.15046296296296297</v>
+      </c>
+      <c r="J12" s="2">
+        <v>9.8379629629629622E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4.6296296296296294E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.5439814814814814</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.53240740740740733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.16795865633074933</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.13178294573643412</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5.1679586563307504E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.62403100775193798</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.69896640826873391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.15517241379310345</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.14798850574712644</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5.6752873563218391E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.48778735632183912</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.57974137931034486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="G15" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3.2000000000000011</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.13939393939393938</v>
+      </c>
+      <c r="J15" s="2">
+        <v>8.484848484848484E-2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5.7575757575757572E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.57272727272727264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.1037037037037037</v>
+      </c>
+      <c r="K16" s="2">
+        <v>5.185185185185185E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.50370370370370365</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>16.25</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="G17" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4.9230769230769231E-2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.39384615384615385</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.48615384615384616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="F18" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2.2000000000000011</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.16772151898734175</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.11708860759493669</v>
+      </c>
+      <c r="K18" s="2">
+        <v>4.5358649789029537E-2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.38396624472573843</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.48945147679324891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.10673868312757202</v>
+      </c>
+      <c r="J19" s="2">
+        <v>8.1661522633744862E-2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3.0864197530864199E-2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.26105967078189302</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.32471707818930046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.18023255813953487</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.1308139534883721</v>
+      </c>
+      <c r="K20" s="2">
+        <v>5.1356589147286823E-2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.38178294573643412</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.50775193798449625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="K21" s="2">
+        <v>5.113636363636364E-2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.58522727272727271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="H22" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I22" s="2">
+        <v>0.15625</v>
+      </c>
+      <c r="J22" s="2">
+        <v>9.2474489795918366E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5.10204081632653E-2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.53252551020408156</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.47831632653061223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="G23" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.18656716417910446</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.1417910447761194</v>
+      </c>
+      <c r="K23" s="2">
+        <v>4.4776119402985072E-2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.60447761194029848</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.60447761194029848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>26</v>
+      </c>
+      <c r="H24" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.2046783625730994</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.1637426900584795</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.46198830409356723</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.56725146198830401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="G25" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6.4999999999999982</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.19897959183673466</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.14795918367346939</v>
+      </c>
+      <c r="K25" s="2">
+        <v>4.5918367346938771E-2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.45918367346938771</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.61224489795918358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="K26" s="2">
+        <v>6.0185185185185182E-2</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.13214285714285715</v>
+      </c>
+      <c r="J27" s="2">
+        <v>8.2142857142857142E-2</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.23214285714285715</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.30178571428571427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G28" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1.7999999999999989</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.17058823529411765</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.12941176470588237</v>
+      </c>
+      <c r="K28" s="2">
+        <v>4.7058823529411764E-2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.38235294117647056</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.48235294117647054</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="1">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.16098484848484848</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="K29" s="2">
+        <v>4.924242424242424E-2</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.42803030303030298</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.49621212121212127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>14</v>
+      </c>
+      <c r="G30" s="2">
+        <v>20</v>
+      </c>
+      <c r="H30" s="2">
+        <v>6</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.17660044150110374</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.10375275938189844</v>
+      </c>
+      <c r="K30" s="2">
+        <v>4.8565121412803537E-2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.34437086092715236</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.47461368653421637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.16333333333333336</v>
+      </c>
+      <c r="J31" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>4.8333333333333339E-2</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.33666666666666667</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.45555555555555549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="G32" s="2">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.13970588235294118</v>
+      </c>
+      <c r="K32" s="2">
+        <v>4.9632352941176468E-2</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.39460784313725489</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.45220588235294118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.28135593220338984</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.12203389830508475</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.1129943502824859</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.34237288135593219</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.49039548022598872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="F34" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.19662921348314605</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.12640449438202248</v>
+      </c>
+      <c r="K34" s="2">
+        <v>6.3202247191011238E-2</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.42134831460674155</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.56413857677902624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.1328125</v>
+      </c>
+      <c r="J35" s="2">
+        <v>8.0729166666666671E-2</v>
+      </c>
+      <c r="K35" s="2">
+        <v>6.3802083333333329E-2</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.54427083333333326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G36" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="H36" s="2">
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="K36" s="2">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.47200000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="G37" s="2">
+        <v>7</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.11261261261261261</v>
+      </c>
+      <c r="J37" s="2">
+        <v>9.4594594594594614E-2</v>
+      </c>
+      <c r="K37" s="2">
+        <v>5.405405405405405E-2</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.56981981981981966</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="F38" s="2">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.13474770642201833</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.10464449541284403</v>
+      </c>
+      <c r="K38" s="2">
+        <v>6.5940366972477057E-2</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.51032110091743121</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.57339449541284404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>13</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J39" s="2">
+        <v>9.3297101449275374E-2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>5.434782608695652E-2</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.5561594202898551</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.57699275362318847</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2">
+        <v>9</v>
+      </c>
+      <c r="G40" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.14047619047619048</v>
+      </c>
+      <c r="J40" s="2">
+        <v>8.8095238095238101E-2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>6.1904761904761907E-2</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.37619047619047619</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.46190476190476193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7</v>
+      </c>
+      <c r="F41" s="2">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.11142857142857143</v>
+      </c>
+      <c r="K41" s="2">
+        <v>4.1428571428571433E-2</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.40285714285714291</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.41428571428571431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="G42" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2.2999999999999989</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.16887417218543049</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.10485651214128038</v>
+      </c>
+      <c r="K42" s="2">
+        <v>4.9668874172185427E-2</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.38520971302428253</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.51655629139072845</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="F43" s="2">
+        <v>14</v>
+      </c>
+      <c r="G43" s="2">
+        <v>16</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.1586206896551724</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.11724137931034483</v>
+      </c>
+      <c r="K43" s="2">
+        <v>5.5172413793103454E-2</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.42068965517241375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="F44" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>18</v>
+      </c>
+      <c r="H44" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.15932914046121593</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.10796645702306081</v>
+      </c>
+      <c r="K44" s="2">
+        <v>4.6121593291404618E-2</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.50314465408805031</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.15468409586056645</v>
+      </c>
+      <c r="J45" s="2">
+        <v>9.6949891067538124E-2</v>
+      </c>
+      <c r="K45" s="2">
+        <v>5.22875816993464E-2</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.31154684095860563</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.39215686274509803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="F46" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="G46" s="2">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.14891975308641975</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.11496913580246913</v>
+      </c>
+      <c r="K46" s="2">
+        <v>5.0925925925925923E-2</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.36882716049382719</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.47993827160493824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>11</v>
+      </c>
+      <c r="G47" s="2">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2">
+        <v>4</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.16792929292929296</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.12373737373737373</v>
+      </c>
+      <c r="K47" s="2">
+        <v>5.6818181818181823E-2</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.39267676767676762</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.50252525252525249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>16</v>
+      </c>
+      <c r="F48" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>17</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.19166666666666668</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.13229166666666667</v>
+      </c>
+      <c r="K48" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0.47812499999999997</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.53020833333333339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>17</v>
+      </c>
+      <c r="F49" s="2">
+        <v>12</v>
+      </c>
+      <c r="G49" s="2">
+        <v>19</v>
+      </c>
+      <c r="H49" s="2">
+        <v>7</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.16470588235294117</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.12352941176470589</v>
+      </c>
+      <c r="K49" s="2">
+        <v>4.1176470588235294E-2</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0.35882352941176471</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0.45294117647058818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="F50" s="2">
+        <v>15</v>
+      </c>
+      <c r="G50" s="2">
+        <v>17</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.20880149812734083</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.15543071161048691</v>
+      </c>
+      <c r="K50" s="2">
+        <v>5.1498127340823978E-2</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0.48408239700374522</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0.54400749063670406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="F51" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="H51" s="2">
+        <v>4</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.15759698275862069</v>
+      </c>
+      <c r="J51" s="2">
+        <v>7.9471982758620691E-2</v>
+      </c>
+      <c r="K51" s="2">
+        <v>5.522629310344828E-2</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.38254310344827586</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.50511853448275867</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F52" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="G52" s="2">
+        <v>18</v>
+      </c>
+      <c r="H52" s="2">
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.23084886128364385</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.19047619047619044</v>
+      </c>
+      <c r="K52" s="2">
+        <v>3.6231884057971016E-2</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0.3685300207039337</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0.48033126293995859</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="F53" s="2">
+        <v>9</v>
+      </c>
+      <c r="G53" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="H53" s="2">
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.1699029126213592</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.11225728155339805</v>
+      </c>
+      <c r="K53" s="2">
+        <v>5.6128640776699025E-2</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0.36205501618122976</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0.4490291262135922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="F54" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="G54" s="2">
+        <v>18</v>
+      </c>
+      <c r="H54" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.15913978494623654</v>
+      </c>
+      <c r="J54" s="2">
+        <v>8.1720430107526873E-2</v>
+      </c>
+      <c r="K54" s="2">
+        <v>4.9462365591397855E-2</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0.3827956989247312</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0.47204301075268817</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="F55" s="2">
+        <v>15</v>
+      </c>
+      <c r="G55" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.13844936708860758</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.10680379746835443</v>
+      </c>
+      <c r="K55" s="2">
+        <v>5.1424050632911389E-2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.36392405063291139</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.44303797468354428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="F56" s="2">
+        <v>13</v>
+      </c>
+      <c r="G56" s="2">
+        <v>15</v>
+      </c>
+      <c r="H56" s="2">
+        <v>2</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.1498800959232614</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.10191846522781775</v>
+      </c>
+      <c r="K56" s="2">
+        <v>4.6762589928057555E-2</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0.34652278177458035</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0.47961630695443641</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="F57" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.10570987654320987</v>
+      </c>
+      <c r="K57" s="2">
+        <v>5.246913580246914E-2</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0.52314814814814814</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>21</v>
+      </c>
+      <c r="F58" s="2">
+        <v>14</v>
+      </c>
+      <c r="G58" s="2">
+        <v>27</v>
+      </c>
+      <c r="H58" s="2">
+        <v>13</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.10476190476190476</v>
+      </c>
+      <c r="K58" s="2">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.67619047619047612</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0.68095238095238098</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="F59" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="G59" s="2">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.12335526315789475</v>
+      </c>
+      <c r="J59" s="2">
+        <v>8.2236842105263164E-2</v>
+      </c>
+      <c r="K59" s="2">
+        <v>3.7006578947368425E-2</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0.55921052631578949</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0.57154605263157898</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>17</v>
+      </c>
+      <c r="F60" s="2">
+        <v>16</v>
+      </c>
+      <c r="G60" s="2">
+        <v>18</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.10588235294117647</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.15882352941176472</v>
+      </c>
+      <c r="K60" s="2">
+        <v>4.1176470588235294E-2</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0.623529411764706</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="F61" s="2">
+        <v>26</v>
+      </c>
+      <c r="G61" s="2">
+        <v>33</v>
+      </c>
+      <c r="H61" s="2">
+        <v>7</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.10109289617486339</v>
+      </c>
+      <c r="J61" s="2">
+        <v>8.0145719489981795E-2</v>
+      </c>
+      <c r="K61" s="2">
+        <v>2.8233151183970857E-2</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0.49271402550091076</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0.60018214936247727</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>8</v>
+      </c>
+      <c r="F62" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G62" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.2890625</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.203125</v>
+      </c>
+      <c r="K62" s="2">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0.6484375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="F63" s="2">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2">
+        <v>13</v>
+      </c>
+      <c r="H63" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="I63" s="2">
+        <v>0.11992296918767506</v>
+      </c>
+      <c r="J63" s="2">
+        <v>6.9152661064425761E-2</v>
+      </c>
+      <c r="K63" s="2">
+        <v>2.3634453781512604E-2</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0.49632352941176466</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0.58560924369747902</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="F64" s="2">
+        <v>12</v>
+      </c>
+      <c r="G64" s="2">
+        <v>17</v>
+      </c>
+      <c r="H64" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="I64" s="2">
+        <v>0.10911270983213431</v>
+      </c>
+      <c r="J64" s="2">
+        <v>7.3141486810551548E-2</v>
+      </c>
+      <c r="K64" s="2">
+        <v>4.4364508393285366E-2</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0.46762589928057552</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0.54076738609112718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>10</v>
+      </c>
+      <c r="F65" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G65" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0.140625</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0.56874999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G66" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.49999999999999956</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0.19555555555555559</v>
+      </c>
+      <c r="J66" s="2">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="K66" s="2">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0.49777777777777771</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0.48888888888888893</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="F67" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G67" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="H67" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0.20292207792207792</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.11634199134199134</v>
+      </c>
+      <c r="K67" s="2">
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0.40719696969696967</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0.47754329004328999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G68" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="H68" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>7.25</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.13793103448275862</v>
-      </c>
-      <c r="F2" s="2">
-        <v>9.9137931034482762E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>7.3275862068965511E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.53879310344827591</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.56034482758620685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I68" s="2">
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="K68" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0.40833333333333333</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0.51249999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F69" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G69" s="2">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9.02</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.12587767923133777</v>
-      </c>
-      <c r="F3" s="2">
-        <v>9.007760532150777E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6.3516260162601632E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.49889135254988914</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.53007206208425728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.11458333333333333</v>
-      </c>
-      <c r="F4" s="2">
-        <v>8.59375E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5.9895833333333336E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.42447916666666669</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.18710691823899372</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.12264150943396225</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4.716981132075472E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.42452830188679247</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.48427672955974838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.20714285714285713</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.1142857142857143</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.31428571428571433</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.44285714285714289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.192</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.11199999999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.12083333333333333</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.50416666666666676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.1217391304347826</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4.5652173913043478E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.35217391304347823</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.4869565217391304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.19047619047619047</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.11904761904761904</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.34523809523809523</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.47023809523809523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.21090909090909093</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.12000000000000002</v>
-      </c>
-      <c r="G11" s="2">
-        <v>7.636363636363637E-2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.59272727272727266</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.55636363636363639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.15046296296296297</v>
-      </c>
-      <c r="F12" s="2">
-        <v>9.8379629629629622E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4.6296296296296294E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.5439814814814814</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.53240740740740733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>21.5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.16795865633074933</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.13178294573643412</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5.1679586563307504E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.62403100775193798</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.69896640826873391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.15517241379310345</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.14798850574712644</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5.6752873563218391E-2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.48778735632183912</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.57974137931034486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.13939393939393938</v>
-      </c>
-      <c r="F15" s="2">
-        <v>8.484848484848484E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5.7575757575757572E-2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.48484848484848486</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.57272727272727264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.1037037037037037</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5.185185185185185E-2</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.50370370370370365</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>16.25</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.12307692307692308</v>
-      </c>
-      <c r="G17" s="2">
-        <v>4.9230769230769231E-2</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.39384615384615385</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.48615384615384616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>15.8</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.16772151898734175</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.11708860759493669</v>
-      </c>
-      <c r="G18" s="2">
-        <v>4.5358649789029537E-2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.38396624472573843</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.48945147679324891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>16.2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.10673868312757202</v>
-      </c>
-      <c r="F19" s="2">
-        <v>8.1661522633744862E-2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3.0864197530864199E-2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.26105967078189302</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.32471707818930046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>17.2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.18023255813953487</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.1308139534883721</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5.1356589147286823E-2</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.38178294573643412</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.50775193798449625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="G21" s="2">
-        <v>5.113636363636364E-2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.58522727272727271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.15625</v>
-      </c>
-      <c r="F22" s="2">
-        <v>9.2474489795918366E-2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5.10204081632653E-2</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.53252551020408156</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.47831632653061223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>13.4</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.18656716417910446</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.1417910447761194</v>
-      </c>
-      <c r="G23" s="2">
-        <v>4.4776119402985072E-2</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.60447761194029848</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.60447761194029848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.2046783625730994</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.1637426900584795</v>
-      </c>
-      <c r="G24" s="2">
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.46198830409356723</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.56725146198830401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.19897959183673466</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.14795918367346939</v>
-      </c>
-      <c r="G25" s="2">
-        <v>4.5918367346938771E-2</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.45918367346938771</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0.61224489795918358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G26" s="2">
-        <v>6.0185185185185182E-2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.49305555555555558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.13214285714285715</v>
-      </c>
-      <c r="F27" s="2">
-        <v>8.2142857142857142E-2</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.23214285714285715</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.30178571428571427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>17</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.17058823529411765</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.12941176470588237</v>
-      </c>
-      <c r="G28" s="2">
-        <v>4.7058823529411764E-2</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.38235294117647056</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.48235294117647054</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="1">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.16098484848484848</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.10606060606060606</v>
-      </c>
-      <c r="G29" s="2">
-        <v>4.924242424242424E-2</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.42803030303030298</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.49621212121212127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>15.1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.17660044150110374</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.10375275938189844</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4.8565121412803537E-2</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.34437086092715236</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.47461368653421637</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>15</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.16333333333333336</v>
-      </c>
-      <c r="F31" s="2">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>4.8333333333333339E-2</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.33666666666666667</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.45555555555555549</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.13970588235294118</v>
-      </c>
-      <c r="G32" s="2">
-        <v>4.9632352941176468E-2</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.39460784313725489</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.45220588235294118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.28135593220338984</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.12203389830508475</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.1129943502824859</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.34237288135593219</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.49039548022598872</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.19662921348314605</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.12640449438202248</v>
-      </c>
-      <c r="G34" s="2">
-        <v>6.3202247191011238E-2</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0.42134831460674155</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.56413857677902624</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.1328125</v>
-      </c>
-      <c r="F35" s="2">
-        <v>8.0729166666666671E-2</v>
-      </c>
-      <c r="G35" s="2">
-        <v>6.3802083333333329E-2</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.54427083333333326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.10400000000000001</v>
-      </c>
-      <c r="G36" s="2">
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0.47200000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.11261261261261261</v>
-      </c>
-      <c r="F37" s="2">
-        <v>9.4594594594594614E-2</v>
-      </c>
-      <c r="G37" s="2">
-        <v>5.405405405405405E-2</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0.56981981981981966</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>10.9</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.13474770642201833</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.10464449541284403</v>
-      </c>
-      <c r="G38" s="2">
-        <v>6.5940366972477057E-2</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.51032110091743121</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0.57339449541284404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="F39" s="2">
-        <v>9.3297101449275374E-2</v>
-      </c>
-      <c r="G39" s="2">
-        <v>5.434782608695652E-2</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0.5561594202898551</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0.57699275362318847</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>14</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.14047619047619048</v>
-      </c>
-      <c r="F40" s="2">
-        <v>8.8095238095238101E-2</v>
-      </c>
-      <c r="G40" s="2">
-        <v>6.1904761904761907E-2</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0.37619047619047619</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0.46190476190476193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>7</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.11142857142857143</v>
-      </c>
-      <c r="G41" s="2">
-        <v>4.1428571428571433E-2</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.40285714285714291</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0.41428571428571431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>15.1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.16887417218543049</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.10485651214128038</v>
-      </c>
-      <c r="G42" s="2">
-        <v>4.9668874172185427E-2</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0.38520971302428253</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0.51655629139072845</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.1586206896551724</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.11724137931034483</v>
-      </c>
-      <c r="G43" s="2">
-        <v>5.5172413793103454E-2</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0.42068965517241375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>15.9</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0.15932914046121593</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.10796645702306081</v>
-      </c>
-      <c r="G44" s="2">
-        <v>4.6121593291404618E-2</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0.41509433962264153</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0.50314465408805031</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>15.3</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.15468409586056645</v>
-      </c>
-      <c r="F45" s="2">
-        <v>9.6949891067538124E-2</v>
-      </c>
-      <c r="G45" s="2">
-        <v>5.22875816993464E-2</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.31154684095860563</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0.39215686274509803</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.14891975308641975</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.11496913580246913</v>
-      </c>
-      <c r="G46" s="2">
-        <v>5.0925925925925923E-2</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0.36882716049382719</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.47993827160493824</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>13.2</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0.16792929292929296</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.12373737373737373</v>
-      </c>
-      <c r="G47" s="2">
-        <v>5.6818181818181823E-2</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0.39267676767676762</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0.50252525252525249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>16</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0.19166666666666668</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0.13229166666666667</v>
-      </c>
-      <c r="G48" s="2">
-        <v>4.3750000000000004E-2</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0.47812499999999997</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0.53020833333333339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>17</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0.16470588235294117</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0.12352941176470589</v>
-      </c>
-      <c r="G49" s="2">
-        <v>4.1176470588235294E-2</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0.35882352941176471</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0.45294117647058818</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0.20880149812734083</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0.15543071161048691</v>
-      </c>
-      <c r="G50" s="2">
-        <v>5.1498127340823978E-2</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0.48408239700374522</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0.54400749063670406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0.15759698275862069</v>
-      </c>
-      <c r="F51" s="2">
-        <v>7.9471982758620691E-2</v>
-      </c>
-      <c r="G51" s="2">
-        <v>5.522629310344828E-2</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0.38254310344827586</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0.50511853448275867</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0.23084886128364385</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0.19047619047619044</v>
-      </c>
-      <c r="G52" s="2">
-        <v>3.6231884057971016E-2</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0.3685300207039337</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0.48033126293995859</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>10.3</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0.1699029126213592</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0.11225728155339805</v>
-      </c>
-      <c r="G53" s="2">
-        <v>5.6128640776699025E-2</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0.36205501618122976</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0.4490291262135922</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>15.5</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0.15913978494623654</v>
-      </c>
-      <c r="F54" s="2">
-        <v>8.1720430107526873E-2</v>
-      </c>
-      <c r="G54" s="2">
-        <v>4.9462365591397855E-2</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0.3827956989247312</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0.47204301075268817</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>15.8</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0.13844936708860758</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0.10680379746835443</v>
-      </c>
-      <c r="G55" s="2">
-        <v>5.1424050632911389E-2</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0.36392405063291139</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0.44303797468354428</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>13.9</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0.1498800959232614</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0.10191846522781775</v>
-      </c>
-      <c r="G56" s="2">
-        <v>4.6762589928057555E-2</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0.34652278177458035</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0.47961630695443641</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0.15277777777777779</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0.10570987654320987</v>
-      </c>
-      <c r="G57" s="2">
-        <v>5.246913580246914E-2</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0.40972222222222221</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0.52314814814814814</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>21</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0.10476190476190476</v>
-      </c>
-      <c r="G58" s="2">
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0.67619047619047612</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0.68095238095238098</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0.12335526315789475</v>
-      </c>
-      <c r="F59" s="2">
-        <v>8.2236842105263164E-2</v>
-      </c>
-      <c r="G59" s="2">
-        <v>3.7006578947368425E-2</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0.55921052631578949</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0.57154605263157898</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>17</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0.10588235294117647</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0.15882352941176472</v>
-      </c>
-      <c r="G60" s="2">
-        <v>4.1176470588235294E-2</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0.55882352941176472</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0.623529411764706</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>30.5</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0.10109289617486339</v>
-      </c>
-      <c r="F61" s="2">
-        <v>8.0145719489981795E-2</v>
-      </c>
-      <c r="G61" s="2">
-        <v>2.8233151183970857E-2</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0.49271402550091076</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0.60018214936247727</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>8</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0.2890625</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0.203125</v>
-      </c>
-      <c r="G62" s="2">
-        <v>7.8125E-2</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0.6484375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1">
-        <v>11.9</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0.11992296918767506</v>
-      </c>
-      <c r="F63" s="2">
-        <v>6.9152661064425761E-2</v>
-      </c>
-      <c r="G63" s="2">
-        <v>2.3634453781512604E-2</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0.49632352941176466</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0.58560924369747902</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1">
-        <v>13.9</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0.10911270983213431</v>
-      </c>
-      <c r="F64" s="2">
-        <v>7.3141486810551548E-2</v>
-      </c>
-      <c r="G64" s="2">
-        <v>4.4364508393285366E-2</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0.46762589928057552</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0.54076738609112718</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D65" s="1">
-        <v>10</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0.140625</v>
-      </c>
-      <c r="F65" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G65" s="2">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0.56874999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0.19555555555555559</v>
-      </c>
-      <c r="F66" s="2">
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="G66" s="2">
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0.49777777777777771</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0.48888888888888893</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0.20292207792207792</v>
-      </c>
-      <c r="F67" s="2">
-        <v>0.11634199134199134</v>
-      </c>
-      <c r="G67" s="2">
-        <v>4.4642857142857144E-2</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0.40719696969696967</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0.47754329004328999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
-        <v>10</v>
-      </c>
-      <c r="E68" s="2">
-        <v>0.18541666666666667</v>
-      </c>
-      <c r="F68" s="2">
-        <v>0.12708333333333333</v>
-      </c>
-      <c r="G68" s="2">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0.40833333333333333</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0.51249999999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="H69" s="2">
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="I69" s="2">
         <v>0.25128865979381443</v>
       </c>
-      <c r="F69" s="2">
+      <c r="J69" s="2">
         <v>0.16108247422680413</v>
       </c>
-      <c r="G69" s="2">
+      <c r="K69" s="2">
         <v>5.1546391752577324E-2</v>
       </c>
-      <c r="H69" s="2">
+      <c r="L69" s="2">
         <v>0.43170103092783507</v>
       </c>
-      <c r="I69" s="2">
+      <c r="M69" s="2">
         <v>0.49613402061855671</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Raw Data/PNR_Carabidae_Traits_Interspecific.xlsx
+++ b/Raw Data/PNR_Carabidae_Traits_Interspecific.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perry.1864\OneDrive - The Ohio State University\Documents\PhD Projects\PhD - Herms Lab\Manuscripts\PNR\Carabidae\R\IDH_Ground_Beetles\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887B6D14-D2F5-441D-87B9-ACE4EDF385E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9FDD17-9B09-48DE-8849-163F75C6ED92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-11100" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{88D2178B-B131-429D-8650-0419B37A5771}"/>
+    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{88D2178B-B131-429D-8650-0419B37A5771}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="3" r:id="rId1"/>
@@ -352,12 +352,6 @@
     <t>Body length (bl)</t>
   </si>
   <si>
-    <t>Macropterous = 1</t>
-  </si>
-  <si>
-    <t>Dimorphic = 0.5</t>
-  </si>
-  <si>
     <t>Brachypertous = 0</t>
   </si>
   <si>
@@ -800,6 +794,12 @@
   </si>
   <si>
     <t>Sandrewsii</t>
+  </si>
+  <si>
+    <t>Macropterous = 2</t>
+  </si>
+  <si>
+    <t>Dimorphic = 1</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC46ACBE-5251-4C40-93FB-0CDAC623646B}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,17 +1207,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -1282,27 +1282,27 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -11034,11 +11034,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2BDC3-DCC5-4064-AE70-5CABAA3EC8EF}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11053,28 +11053,28 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -11097,13 +11097,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>7.25</v>
@@ -11138,13 +11138,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>9.02</v>
@@ -11179,13 +11179,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>8</v>
@@ -11220,13 +11220,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <v>10.6</v>
@@ -11261,10 +11261,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <v>12.5</v>
@@ -11343,13 +11343,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
         <v>12</v>
@@ -11384,13 +11384,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <v>11.5</v>
@@ -11425,13 +11425,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>10.5</v>
@@ -11466,13 +11466,13 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <v>5.5</v>
@@ -11507,13 +11507,13 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
         <v>10.8</v>
@@ -11548,10 +11548,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -11589,13 +11589,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
         <v>14.5</v>
@@ -11630,13 +11630,13 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <v>16.5</v>
@@ -11671,13 +11671,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>13.5</v>
@@ -11712,10 +11712,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -11753,10 +11753,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -11794,10 +11794,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -11835,10 +11835,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -11876,13 +11876,13 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D21" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>11</v>
@@ -11914,13 +11914,13 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
         <v>9.8000000000000007</v>
@@ -11955,10 +11955,10 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -11996,10 +11996,10 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -12037,10 +12037,10 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -12078,10 +12078,10 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -12119,10 +12119,10 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -12160,13 +12160,13 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
         <v>17</v>
@@ -12201,10 +12201,10 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E29" s="1">
         <v>11</v>
@@ -12239,10 +12239,10 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -12280,10 +12280,10 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -12321,13 +12321,13 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1">
         <v>8.5</v>
@@ -12362,13 +12362,13 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
         <v>5.9</v>
@@ -12403,13 +12403,13 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1">
         <v>8.9</v>
@@ -12444,13 +12444,13 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1">
         <v>8</v>
@@ -12485,13 +12485,13 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D36" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>12.5</v>
@@ -12526,10 +12526,10 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -12567,10 +12567,10 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -12608,13 +12608,13 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1">
         <v>11.5</v>
@@ -12649,13 +12649,13 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
         <v>14</v>
@@ -12690,13 +12690,13 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D41" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
         <v>7</v>
@@ -12731,10 +12731,10 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -12772,10 +12772,10 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -12810,10 +12810,10 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -12851,13 +12851,13 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1">
         <v>15.3</v>
@@ -12892,10 +12892,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -12933,10 +12933,10 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -12974,10 +12974,10 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -13015,13 +13015,13 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D49" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
         <v>17</v>
@@ -13056,10 +13056,10 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -13097,13 +13097,13 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="1">
         <v>11.6</v>
@@ -13138,10 +13138,10 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -13179,10 +13179,10 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -13220,10 +13220,10 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -13261,10 +13261,10 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -13302,13 +13302,13 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1">
         <v>13.9</v>
@@ -13343,10 +13343,10 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -13384,10 +13384,10 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -13425,10 +13425,10 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -13466,10 +13466,10 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -13507,10 +13507,10 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -13548,13 +13548,13 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="1">
         <v>8</v>
@@ -13589,10 +13589,10 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -13630,10 +13630,10 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -13671,13 +13671,13 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D65" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
         <v>10</v>
@@ -13712,13 +13712,13 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="1">
         <v>4.5</v>
@@ -13753,13 +13753,13 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="1">
         <v>7.7</v>
@@ -13794,13 +13794,13 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="1">
         <v>10</v>
@@ -13835,13 +13835,13 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="1">
         <v>9.6999999999999993</v>

--- a/Raw Data/PNR_Carabidae_Traits_Interspecific.xlsx
+++ b/Raw Data/PNR_Carabidae_Traits_Interspecific.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perry.1864\OneDrive - The Ohio State University\Documents\PhD Projects\PhD - Herms Lab\Manuscripts\PNR\Carabidae\R\IDH_Ground_Beetles\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9FDD17-9B09-48DE-8849-163F75C6ED92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283DBD3B-E7D9-4190-BE74-D3F6F04C70E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{88D2178B-B131-429D-8650-0419B37A5771}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{88D2178B-B131-429D-8650-0419B37A5771}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="3" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>rew</t>
   </si>
   <si>
-    <t>al</t>
-  </si>
-  <si>
     <t>bll</t>
   </si>
   <si>
@@ -800,6 +797,9 @@
   </si>
   <si>
     <t>Dimorphic = 1</t>
+  </si>
+  <si>
+    <t>ral</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC46ACBE-5251-4C40-93FB-0CDAC623646B}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,117 +1192,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1340,42 +1340,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6">
         <v>2</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6">
         <v>3</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6">
         <v>5</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>6</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>2</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
         <v>3</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6">
         <v>2</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6">
         <v>4</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="6">
         <v>5</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="6">
         <v>6</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="6">
         <v>2</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="6">
         <v>3</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="6">
         <v>4</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="6">
         <v>5</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="6">
         <v>6</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="6">
         <v>2</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="6">
         <v>3</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="6">
         <v>4</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="6">
         <v>5</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="6">
         <v>6</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" s="6">
         <v>2</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="6">
         <v>1</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="6">
         <v>2</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="6">
         <v>3</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="6">
         <v>4</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="6">
         <v>5</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="6">
         <v>6</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" s="6">
         <v>1</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="6">
         <v>2</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53" s="6">
         <v>3</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="6">
         <v>4</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="6">
         <v>5</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="6">
         <v>6</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" s="6">
         <v>2</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59" s="6">
         <v>3</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60" s="6">
         <v>4</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" s="6">
         <v>5</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62" s="6">
         <v>6</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" s="6">
         <v>1</v>
@@ -3711,7 +3711,7 @@
         <v>0.6875</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H63" s="5">
         <v>6.5</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64" s="6">
         <v>1</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" s="6">
         <v>2</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66" s="6">
         <v>1</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67" s="6">
         <v>2</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" s="6">
         <v>3</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69" s="6">
         <v>4</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" s="6">
         <v>5</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71" s="6">
         <v>6</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B72" s="6">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73" s="6">
         <v>2</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B74" s="6">
         <v>3</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" s="6">
         <v>4</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="6">
         <v>5</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77" s="6">
         <v>6</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" s="6">
         <v>1</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" s="6">
         <v>2</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80" s="6">
         <v>3</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B81" s="6">
         <v>4</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" s="6">
         <v>5</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B83" s="6">
         <v>6</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B84" s="6">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         <v>0.5</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H84" s="5">
         <v>5.125</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B85" s="6">
         <v>2</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B86" s="6">
         <v>3</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B87" s="6">
         <v>1</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B88" s="6">
         <v>2</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B89" s="6">
         <v>1</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B91" s="6">
         <v>2</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B92" s="6">
         <v>3</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" s="6">
         <v>1</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" s="6">
         <v>2</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" s="6">
         <v>3</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B96" s="6">
         <v>1</v>
@@ -4977,15 +4977,15 @@
         <v>2.6</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B97" s="6">
         <v>1</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B98" s="6">
         <v>2</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B99" s="6">
         <v>3</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B100" s="6">
         <v>1</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B101" s="6">
         <v>2</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B102" s="6">
         <v>3</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B103" s="6">
         <v>4</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B104" s="6">
         <v>5</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B105" s="6">
         <v>6</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B106" s="6">
         <v>1</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B107" s="6">
         <v>2</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B108" s="6">
         <v>3</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B109" s="6">
         <v>4</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B110" s="6">
         <v>5</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B111" s="6">
         <v>6</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B112" s="6">
         <v>1</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B113" s="6">
         <v>2</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B114" s="6">
         <v>3</v>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B115" s="6">
         <v>1</v>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B116" s="6">
         <v>2</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B117" s="6">
         <v>3</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B118" s="6">
         <v>4</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B119" s="6">
         <v>5</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B120" s="6">
         <v>6</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B121" s="6">
         <v>1</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B122" s="6">
         <v>1</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B123" s="6">
         <v>2</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B124" s="6">
         <v>3</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B125" s="6">
         <v>4</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B126" s="6">
         <v>5</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B127" s="6">
         <v>6</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B128" s="6">
         <v>1</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B129" s="6">
         <v>2</v>
@@ -6219,7 +6219,7 @@
         <v>0.625</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H129" s="5">
         <v>6.9375</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B130" s="6">
         <v>3</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B131" s="6">
         <v>4</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B132" s="6">
         <v>1</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B133" s="6">
         <v>2</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B134" s="6">
         <v>3</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B135" s="6">
         <v>4</v>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B136" s="6">
         <v>5</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B137" s="6">
         <v>6</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B138" s="6">
         <v>1</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B139" s="6">
         <v>2</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B140" s="6">
         <v>3</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B141" s="6">
         <v>1</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B142" s="6">
         <v>2</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B143" s="6">
         <v>1</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B144" s="6">
         <v>2</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B145" s="6">
         <v>3</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B146" s="6">
         <v>4</v>
@@ -6885,7 +6885,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B147" s="6">
         <v>5</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B148" s="6">
         <v>6</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B149" s="6">
         <v>1</v>
@@ -6991,15 +6991,15 @@
         <v>2.9</v>
       </c>
       <c r="K149" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B150" s="6">
         <v>1</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B151" s="6">
         <v>2</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B152" s="6">
         <v>3</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B153" s="6">
         <v>4</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B154" s="6">
         <v>5</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B155" s="6">
         <v>6</v>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B156" s="6">
         <v>1</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B157" s="6">
         <v>2</v>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B158" s="6">
         <v>3</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B159" s="6">
         <v>4</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B160" s="6">
         <v>5</v>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B161" s="6">
         <v>6</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B162" s="6">
         <v>1</v>
@@ -7493,7 +7493,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B163" s="6">
         <v>2</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B164" s="6">
         <v>3</v>
@@ -7569,7 +7569,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B165" s="6">
         <v>4</v>
@@ -7607,7 +7607,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B166" s="6">
         <v>5</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B167" s="6">
         <v>6</v>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B168" s="6">
         <v>1</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B169" s="6">
         <v>2</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B170" s="6">
         <v>3</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B171" s="6">
         <v>4</v>
@@ -7835,7 +7835,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B172" s="6">
         <v>5</v>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B173" s="6">
         <v>6</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B174" s="6">
         <v>1</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B175" s="6">
         <v>2</v>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B176" s="6">
         <v>3</v>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B177" s="6">
         <v>4</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B178" s="6">
         <v>5</v>
@@ -8101,7 +8101,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B179" s="6">
         <v>6</v>
@@ -8139,7 +8139,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B180" s="6">
         <v>1</v>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B181" s="6">
         <v>1</v>
@@ -8215,7 +8215,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B182" s="6">
         <v>2</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B183" s="6">
         <v>3</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B184" s="6">
         <v>4</v>
@@ -8329,7 +8329,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B185" s="6">
         <v>5</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B186" s="6">
         <v>6</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B187" s="6">
         <v>1</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B188" s="6">
         <v>2</v>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B189" s="6">
         <v>3</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B190" s="6">
         <v>4</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B191" s="6">
         <v>1</v>
@@ -8595,7 +8595,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B192" s="6">
         <v>2</v>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B193" s="6">
         <v>3</v>
@@ -8671,7 +8671,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B194" s="6">
         <v>4</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B195" s="6">
         <v>5</v>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B196" s="6">
         <v>6</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B197" s="6">
         <v>1</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B198" s="6">
         <v>2</v>
@@ -8841,7 +8841,7 @@
         <v>0.5</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H198" s="5">
         <v>6.3125</v>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B199" s="6">
         <v>3</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B200" s="6">
         <v>4</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B201" s="6">
         <v>1</v>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B202" s="6">
         <v>2</v>
@@ -9013,7 +9013,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B203" s="6">
         <v>3</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B204" s="6">
         <v>4</v>
@@ -9089,7 +9089,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B205" s="6">
         <v>5</v>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B206" s="6">
         <v>6</v>
@@ -9165,7 +9165,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B207" s="6">
         <v>1</v>
@@ -9203,7 +9203,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B208" s="6">
         <v>1</v>
@@ -9241,7 +9241,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B209" s="6">
         <v>2</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B210" s="6">
         <v>3</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B211" s="6">
         <v>4</v>
@@ -9355,7 +9355,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B212" s="6">
         <v>5</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B213" s="6">
         <v>6</v>
@@ -9431,7 +9431,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B214" s="6">
         <v>1</v>
@@ -9469,7 +9469,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B215" s="6">
         <v>2</v>
@@ -9507,7 +9507,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B216" s="6">
         <v>3</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B217" s="6">
         <v>4</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B218" s="6">
         <v>5</v>
@@ -9621,7 +9621,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B219" s="6">
         <v>6</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B220" s="6">
         <v>1</v>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B221" s="6">
         <v>1</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B222" s="6">
         <v>2</v>
@@ -9753,7 +9753,7 @@
         <v>0.5625</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H222" s="5">
         <v>4.1875</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B223" s="6">
         <v>1</v>
@@ -9811,7 +9811,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B224" s="6">
         <v>2</v>
@@ -9849,7 +9849,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B225" s="6">
         <v>1</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B226" s="6">
         <v>1</v>
@@ -9925,7 +9925,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B227" s="6">
         <v>2</v>
@@ -9963,7 +9963,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B228" s="6">
         <v>3</v>
@@ -10001,7 +10001,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B229" s="6">
         <v>4</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B230" s="6">
         <v>5</v>
@@ -10077,7 +10077,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B231" s="6">
         <v>6</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B232" s="6">
         <v>1</v>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B233" s="6">
         <v>1</v>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B234" s="6">
         <v>2</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B235" s="6">
         <v>3</v>
@@ -10267,7 +10267,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B236" s="6">
         <v>4</v>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B237" s="6">
         <v>5</v>
@@ -10343,7 +10343,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B238" s="6">
         <v>6</v>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B239" s="6">
         <v>1</v>
@@ -10419,7 +10419,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B240" s="6">
         <v>2</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B241" s="6">
         <v>3</v>
@@ -10495,7 +10495,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B242" s="6">
         <v>4</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B243" s="6">
         <v>5</v>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B244" s="6">
         <v>6</v>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B245" s="6">
         <v>1</v>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B246" s="6">
         <v>1</v>
@@ -10685,7 +10685,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B247" s="6">
         <v>2</v>
@@ -10723,7 +10723,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B248" s="6">
         <v>3</v>
@@ -10761,7 +10761,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B249" s="6">
         <v>4</v>
@@ -10799,7 +10799,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B250" s="6">
         <v>5</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B251" s="6">
         <v>6</v>
@@ -10875,7 +10875,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B252" s="6">
         <v>1</v>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B253" s="6">
         <v>2</v>
@@ -10951,7 +10951,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B254" s="6">
         <v>3</v>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B255" s="6">
         <v>1</v>
@@ -11034,11 +11034,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2BDC3-DCC5-4064-AE70-5CABAA3EC8EF}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11053,28 +11053,28 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -11086,21 +11086,21 @@
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -11135,13 +11135,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -11176,13 +11176,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -11217,13 +11217,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -11258,13 +11258,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -11299,13 +11299,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -11340,13 +11340,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -11381,13 +11381,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -11422,13 +11422,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -11463,13 +11463,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -11504,13 +11504,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -11545,13 +11545,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -11586,13 +11586,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -11627,13 +11627,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -11668,13 +11668,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -11709,13 +11709,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -11750,13 +11750,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -11791,13 +11791,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -11832,13 +11832,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -11873,13 +11873,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -11911,13 +11911,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -11952,13 +11952,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -11993,13 +11993,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -12034,13 +12034,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -12075,13 +12075,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -12116,13 +12116,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -12157,13 +12157,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -12198,13 +12198,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E29" s="1">
         <v>11</v>
@@ -12236,13 +12236,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -12277,13 +12277,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -12318,13 +12318,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -12359,13 +12359,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -12400,13 +12400,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -12441,13 +12441,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -12482,13 +12482,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -12523,13 +12523,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -12564,13 +12564,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -12605,13 +12605,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -12646,13 +12646,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -12687,13 +12687,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -12728,13 +12728,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -12769,13 +12769,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -12807,13 +12807,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -12848,13 +12848,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
@@ -12889,13 +12889,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -12930,13 +12930,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -12971,13 +12971,13 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -13012,13 +13012,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -13053,13 +13053,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -13094,13 +13094,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -13135,13 +13135,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -13176,13 +13176,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -13217,13 +13217,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -13258,13 +13258,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -13299,13 +13299,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
@@ -13340,13 +13340,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -13381,13 +13381,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -13422,13 +13422,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -13463,13 +13463,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -13504,13 +13504,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -13545,13 +13545,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -13586,13 +13586,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -13627,13 +13627,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -13668,13 +13668,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -13709,13 +13709,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D66" s="1">
         <v>2</v>
@@ -13750,13 +13750,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
@@ -13791,13 +13791,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
@@ -13832,13 +13832,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D69" s="1">
         <v>2</v>
